--- a/docs/PT2/PT2_03.09.2024_output.xlsx
+++ b/docs/PT2/PT2_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731603705.1050408</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731603708.2102773</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731603705.1050408.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731603708.2102773.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>240.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247.04</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-6.539999999999992</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-2.72</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731603708.225233</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731603710.7900221</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731603708.225233.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731603710.7900221.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>246.72</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.3199999999999932</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731603713.7259789</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731603715.9766436</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731603713.7259789.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731603715.9766436.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>248.81</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>247.42</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.390000000000015</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731603717.0846324</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731603719.8715143</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603717.0846324.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603719.8715143.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>240.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>247.04</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-6.539999999999992</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-2.72</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731603719.8854795</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731603722.0779042</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603719.8854795.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603722.0779042.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>247.04</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>246.72</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3199999999999932</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731603724.7458358</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731603726.693832</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603724.7458358.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603726.693832.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>248.81</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>247.42</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.390000000000015</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731603727.7269936</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731603731.729131</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603727.7269936.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603731.729131.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>241.22</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>247.8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-6.580000000000013</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-2.73</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731603731.7450671</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731603734.384475</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603731.7450671.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603734.384475.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>247.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>247.06</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731603737.0080535</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731603739.1837916</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603737.0080535.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731603739.1837916.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>249.59</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>248.37</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.219999999999999</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731603743.389851</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731603744.8418016</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603743.389851.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603744.8418016.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>124.76</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>124.29</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.4699999999999989</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731603746.0700212</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731603747.4493182</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603746.0700212.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603747.4493182.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>124.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>124.88</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731603751.618357</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731603752.2194345</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603751.618357.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731603752.2194345.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>123.71</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>123.15</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5599999999999881</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731603755.6643448</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731603757.1202524</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731603755.6643448.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731603757.1202524.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6210.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6216.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731603767.8676836</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731603767.92353</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603767.8676836.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603767.92353.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>465.15</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>464.25</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731603767.9788394</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731603769.3278022</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603767.9788394.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603769.3278022.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>464.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>464.85</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731603770.4194376</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731603770.9900599</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603770.4194376.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603770.9900599.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>466</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>466.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731603773.1189084</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731603775.523909</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603773.1189084.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731603775.523909.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>470.7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>467.1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-3.599999999999966</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731603776.8839076</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731603779.3711076</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603776.8839076.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603779.3711076.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>190.13</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>193.41</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-3.280000000000001</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.73</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731603780.2976227</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731603781.3719223</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603780.2976227.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603781.3719223.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>193.86</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>194.68</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731603781.809263</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731603782.0265737</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603781.809263.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603782.0265737.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>194.66</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>195.12</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731603782.5801058</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731603783.8512824</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603782.5801058.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603783.8512824.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>195.35</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>195.7</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731603788.6466615</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731603789.4265194</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603788.6466615.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731603789.4265194.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>192.78</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>191.96</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731603792.767409</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731603794.2029612</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603792.767409.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603794.2029612.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>966.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>962.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-4.399999999999977</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731603795.9319456</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731603796.3809235</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603795.9319456.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603796.3809235.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>963.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>965.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731603797.5031078</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731603797.7424145</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603797.5031078.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603797.7424145.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>968.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>971.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731603798.6210897</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731603801.3043852</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603798.6210897.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731603801.3043852.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>972.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>965.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-6.400000000000091</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731603803.0443988</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731603804.8181894</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603803.0443988.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603804.8181894.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.959</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.988</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.02899999999999991</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731603804.834087</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731603806.2202964</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603804.834087.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603806.2202964.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.988</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.995</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731603806.371868</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731603806.8571937</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603806.371868.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603806.8571937.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.984</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.979</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731603807.8394487</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731603808.3494654</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603807.8394487.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603808.3494654.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.984</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.989</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2099,51 +2295,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731603810.1686862</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731603811.6602023</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603810.1686862.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603811.6602023.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>12.038</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>12.049</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01099999999999923</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2151,51 +2353,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731603813.1262705</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731603813.2704315</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603813.1262705.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731603813.2704315.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>12.057</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>12.074</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01699999999999946</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2203,51 +2411,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731603817.4570642</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731603818.3865364</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603817.4570642.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603818.3865364.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>105.24</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>106.18</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.9400000000000119</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -2255,51 +2469,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731603819.3652036</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731603821.2781532</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603819.3652036.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603821.2781532.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>106.12</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>105.88</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.2400000000000091</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2307,51 +2527,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731603822.4404924</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731603823.442169</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603822.4404924.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603823.442169.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>106.42</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>107.34</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.9200000000000017</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -2359,51 +2585,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731603824.1670141</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731603824.621487</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603824.1670141.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731603824.621487.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>107.14</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>107.32</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1799999999999926</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2411,51 +2643,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731603830.8405268</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731603832.173208</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603830.8405268.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603832.173208.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>129.66</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>130.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6400000000000148</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2463,51 +2701,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731603833.1129138</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731603834.4710658</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603833.1129138.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603834.4710658.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>130.68</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>130.56</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2515,51 +2759,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731603835.1632104</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731603835.5410538</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603835.1632104.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603835.5410538.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>129.86</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>130.1</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2567,51 +2817,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731603838.6551309</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731603839.1353068</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603838.6551309.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731603839.1353068.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>128.32</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>127.22</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -2619,43 +2875,49 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731603839.3362994</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731603839.3362994.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731603839.3362994.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>127.76</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>127.76</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731603841.71381</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731603842.1921453</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603841.71381.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603842.1921453.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>41.235</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>41.55</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3149999999999977</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731603842.3307385</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731603843.6158977</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603842.3307385.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603843.6158977.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>41.39</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>41.505</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.115000000000002</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2767,51 +3041,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731603845.5071402</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731603847.1839314</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603845.5071402.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603847.1839314.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>41.645</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>41.62</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2819,51 +3099,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731603850.8989174</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731603851.6635766</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603850.8989174.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731603851.6635766.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>41.04</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>40.77</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -2871,51 +3157,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731603855.9136608</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731603856.7681675</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731603855.9136608.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731603856.7681675.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1197.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>10</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -2923,51 +3215,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731603857.6503778</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731603859.3791714</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731603857.6503778.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731603859.3791714.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1201.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1201.2</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.3999999999998636</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2975,43 +3273,49 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731603864.3067987</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731603864.3067987.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731603864.3067987.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1165.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1165.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731603865.4215977</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731603865.7455168</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603865.4215977.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603865.7455168.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>47.12</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>47.43</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731603866.369708</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731603866.9237766</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603866.369708.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603866.9237766.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>47.46</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>47.86</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731603866.9794993</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731603869.0259173</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603866.9794993.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603869.0259173.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>47.68</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>47.97</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731603871.9990242</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731603872.4548442</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603871.9990242.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603872.4548442.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>48.39</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>48.58</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731603873.2311206</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731603874.1615684</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603873.2311206.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603874.1615684.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>48.64</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>48.81</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731603874.762598</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731603875.71577</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603874.762598.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731603875.71577.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>48.53</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>48.31</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731603879.3419714</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731603879.730443</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731603879.3419714.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731603879.730443.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>87.48</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>87.93000000000001</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731603880.1438093</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731603881.0889773</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731603880.1438093.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731603881.0889773.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>87.91</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>88.09</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3435,51 +3787,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731603885.9298358</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731603888.1323667</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731603885.9298358.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731603888.1323667.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>88.54000000000001</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>87.94</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.6000000000000085</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -3487,51 +3845,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731603891.5484304</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731603893.9332194</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603891.5484304.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603893.9332194.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>47.65</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>47.81</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1600000000000037</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3539,51 +3903,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731603896.4030418</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731603896.6332874</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603896.4030418.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731603896.6332874.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>47.6</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>47.79</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3591,43 +3961,49 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731603900.9627874</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731603900.9627874.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731603900.9627874.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>46.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>46.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731603904.1338496</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731603904.8563962</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603904.1338496.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603904.8563962.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>139.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>140.3</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -3687,51 +4069,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731603905.336342</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731603907.482008</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603905.336342.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603907.482008.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>139.64</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>139.5</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3739,51 +4127,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731603908.7083225</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731603911.0138752</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603908.7083225.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731603911.0138752.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>139.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>138.16</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-1.640000000000015</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-1.17</v>
       </c>
     </row>
@@ -3791,95 +4185,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731603911.0298326</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731603911.0298326.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731603911.0298326.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>138.16</v>
       </c>
-      <c r="J66" t="n">
-        <v>138.16</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>138.84</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731603912.09502</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731603914.9296856</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731603912.09502.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731603914.9296856.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.2717</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.2793</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.007599999999999996</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-2.8</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731603914.9456518</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731603918.0109289</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731603914.9456518.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731603918.0109289.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.2793</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.2801</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.0008000000000000229</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3939,95 +4351,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731603920.307898</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731603920.307898.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+          <t>./test_images/MRKP1731603920.307898.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.2795</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.2795</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.2766</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.002900000000000014</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-1.04</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731603924.8204646</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731603925.80047</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731603924.8204646.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731603925.80047.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>15.421</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>15.284</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1369999999999987</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731603933.3949997</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731603933.554755</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731603933.3949997.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731603933.554755.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>15.174</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>15.075</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.0990000000000002</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731603933.619861</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731603933.6770403</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731603933.619861.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731603933.6770403.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>15.134</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>15.086</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.04800000000000004</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4139,51 +4575,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731603936.0951755</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731603936.872249</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603936.0951755.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603936.872249.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>646.5</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>651.45</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>4.950000000000045</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -4191,51 +4633,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731603937.1221592</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731603938.0567117</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603937.1221592.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603938.0567117.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>650.25</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>652.5</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>2.25</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4243,51 +4691,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731603939.1056004</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731603940.7973273</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603939.1056004.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603940.7973273.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>653.05</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>652.75</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4295,51 +4749,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731603941.0591474</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731603941.3263083</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603941.0591474.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603941.3263083.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>650.8</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>652</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4347,51 +4807,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731603942.2797458</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731603944.490706</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603942.2797458.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731603944.490706.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>652.85</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>652.25</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4399,51 +4865,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731603947.4887426</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731603947.8921475</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731603947.4887426.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731603947.8921475.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>113.67</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>114.4</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.730000000000004</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -4451,51 +4923,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731603948.4785824</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731603950.1741307</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731603948.4785824.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731603950.1741307.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>114.75</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>113.89</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.8599999999999994</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -4755,19 +5233,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.8799999999999955</v>
+        <v>-1.560000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-0.3900000000000006</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6199999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.15</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="12">
@@ -4931,19 +5409,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006799999999999973</v>
+        <v>-0.009699999999999986</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002266666666666658</v>
+        <v>-0.003233333333333329</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.51</v>
+        <v>-3.55</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.84</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="20">
